--- a/docentes/Duran Amezcua María Angélica - Estadisticos 20211.xlsx
+++ b/docentes/Duran Amezcua María Angélica - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t>Mat</t>
   </si>
@@ -80,6 +80,51 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>ALDUCIN</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>BRENDA JANET</t>
+  </si>
+  <si>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>LAISHA STEFANY</t>
+  </si>
+  <si>
+    <t>YADIRA</t>
+  </si>
+  <si>
+    <t>YATZIRI NAOMI</t>
   </si>
 </sst>
 </file>
@@ -483,16 +528,19 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>73.08</v>
+      </c>
+      <c r="H2">
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -506,16 +554,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>91.3</v>
+      </c>
+      <c r="H3">
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -529,16 +580,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>94.12</v>
+      </c>
+      <c r="H4">
+        <v>8.9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -552,16 +606,19 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>78.13</v>
+      </c>
+      <c r="H5">
+        <v>7.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -575,16 +632,19 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>63.16</v>
+      </c>
+      <c r="H6">
+        <v>8.1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -598,16 +658,19 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>72.22</v>
+      </c>
+      <c r="H7">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -689,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -712,7 +775,7 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -735,7 +798,7 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -758,7 +821,7 @@
         <v>38</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -781,7 +844,7 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -843,16 +906,19 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>73.08</v>
+      </c>
+      <c r="H2">
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -866,16 +932,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>91.3</v>
+      </c>
+      <c r="H3">
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -889,16 +958,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>94.12</v>
+      </c>
+      <c r="H4">
+        <v>8.9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -912,16 +984,19 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>78.13</v>
+      </c>
+      <c r="H5">
+        <v>7.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -935,16 +1010,19 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>63.16</v>
+      </c>
+      <c r="H6">
+        <v>8.1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -958,16 +1036,19 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>72.22</v>
+      </c>
+      <c r="H7">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1010,6 +1091,121 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920268</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920346</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Duran Amezcua María Angélica - Estadisticos 20211.xlsx
+++ b/docentes/Duran Amezcua María Angélica - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
   <si>
     <t>Mat</t>
   </si>
@@ -82,49 +82,58 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
     <t>AGUILAR</t>
   </si>
   <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
     <t>TZANAHUA</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
     <t>ALDUCIN</t>
   </si>
   <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
     <t>SEGURA</t>
   </si>
   <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
     <t>GUEVARA</t>
   </si>
   <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>YADIRA</t>
+  </si>
+  <si>
     <t>BRENDA JANET</t>
   </si>
   <si>
-    <t>EDITH</t>
-  </si>
-  <si>
     <t>LAISHA STEFANY</t>
   </si>
   <si>
-    <t>YADIRA</t>
-  </si>
-  <si>
     <t>YATZIRI NAOMI</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1093,16 +1102,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920268</v>
+        <v>18330051920242</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1116,16 +1125,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920242</v>
+        <v>18330051920346</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1134,21 +1143,21 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920301</v>
+        <v>19330051920268</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1162,16 +1171,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920346</v>
+        <v>19330051920301</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1180,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1191,10 +1200,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1203,6 +1212,29 @@
         <v>10</v>
       </c>
       <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920398</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Duran Amezcua María Angélica - Estadisticos 20211.xlsx
+++ b/docentes/Duran Amezcua María Angélica - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
   <si>
     <t>Mat</t>
   </si>
@@ -88,6 +88,9 @@
     <t>TEXCAHUA</t>
   </si>
   <si>
+    <t>HERAS</t>
+  </si>
+  <si>
     <t>AGUILAR</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>CABRERA</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
     <t>SEGURA</t>
   </si>
   <si>
@@ -122,6 +128,9 @@
   </si>
   <si>
     <t>YADIRA</t>
+  </si>
+  <si>
+    <t>CESAR ENRIQUE</t>
   </si>
   <si>
     <t>BRENDA JANET</t>
@@ -1067,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1108,10 +1117,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1131,10 +1140,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1148,22 +1157,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920268</v>
+        <v>19330051920235</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1171,16 +1180,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920301</v>
+        <v>19330051920268</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1194,22 +1203,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920125</v>
+        <v>19330051920301</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1217,24 +1226,47 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920398</v>
+        <v>19330051920125</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920398</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>6</v>
       </c>
     </row>
